--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H2">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I2">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J2">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>205.9631266458626</v>
+        <v>41.57990703335791</v>
       </c>
       <c r="R2">
-        <v>1853.668139812764</v>
+        <v>374.2191633002211</v>
       </c>
       <c r="S2">
-        <v>0.01104763938995755</v>
+        <v>0.02196347937479575</v>
       </c>
       <c r="T2">
-        <v>0.01611064245572546</v>
+        <v>0.02515083284085348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H3">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I3">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J3">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>317.3607576704525</v>
+        <v>73.74135979175958</v>
       </c>
       <c r="R3">
-        <v>2856.246819034072</v>
+        <v>663.6722381258361</v>
       </c>
       <c r="S3">
-        <v>0.0170228878555301</v>
+        <v>0.0389519109207327</v>
       </c>
       <c r="T3">
-        <v>0.02482427694496013</v>
+        <v>0.04460463589040402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H4">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I4">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J4">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>137.6407976967615</v>
+        <v>42.35558193246767</v>
       </c>
       <c r="R4">
-        <v>1238.767179270854</v>
+        <v>381.200237392209</v>
       </c>
       <c r="S4">
-        <v>0.007382903547169794</v>
+        <v>0.0223732089981563</v>
       </c>
       <c r="T4">
-        <v>0.01076640132204902</v>
+        <v>0.0256200226759992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H5">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I5">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J5">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>79.852837143907</v>
+        <v>13.6880186732135</v>
       </c>
       <c r="R5">
-        <v>479.117022863442</v>
+        <v>82.12811203928102</v>
       </c>
       <c r="S5">
-        <v>0.004283219833556617</v>
+        <v>0.00723033160150539</v>
       </c>
       <c r="T5">
-        <v>0.004164112703897596</v>
+        <v>0.005519734476499008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H6">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I6">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J6">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>232.6343443761751</v>
+        <v>36.57093326242811</v>
       </c>
       <c r="R6">
-        <v>2093.709099385576</v>
+        <v>329.138399361853</v>
       </c>
       <c r="S6">
-        <v>0.01247825466742985</v>
+        <v>0.01931762227803868</v>
       </c>
       <c r="T6">
-        <v>0.01819689187186822</v>
+        <v>0.02212100735529368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J7">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>247.8118683668026</v>
+        <v>215.3070361025524</v>
       </c>
       <c r="R7">
-        <v>2230.306815301224</v>
+        <v>1937.763324922972</v>
       </c>
       <c r="S7">
-        <v>0.01329236064169576</v>
+        <v>0.113730212116468</v>
       </c>
       <c r="T7">
-        <v>0.01938409302946489</v>
+        <v>0.1302348095711359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J8">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
         <v>381.8438940279058</v>
@@ -948,10 +948,10 @@
         <v>3436.595046251152</v>
       </c>
       <c r="S8">
-        <v>0.02048169355930783</v>
+        <v>0.201698875472361</v>
       </c>
       <c r="T8">
-        <v>0.02986821258138581</v>
+        <v>0.2309695387796747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J9">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>165.6074259320182</v>
+        <v>219.3235978368653</v>
       </c>
       <c r="R9">
-        <v>1490.466833388164</v>
+        <v>1973.912380531788</v>
       </c>
       <c r="S9">
-        <v>0.008883003243303081</v>
+        <v>0.1158518539647387</v>
       </c>
       <c r="T9">
-        <v>0.01295397904786748</v>
+        <v>0.1326643453729747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J10">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>96.077783869762</v>
+        <v>70.878627224482</v>
       </c>
       <c r="R10">
-        <v>576.466703218572</v>
+        <v>425.271763346892</v>
       </c>
       <c r="S10">
-        <v>0.005153508430683617</v>
+        <v>0.03743974862449393</v>
       </c>
       <c r="T10">
-        <v>0.005010200447272782</v>
+        <v>0.02858201845556411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J11">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>279.9022935074684</v>
+        <v>189.3698136919995</v>
       </c>
       <c r="R11">
-        <v>2519.120641567216</v>
+        <v>1704.328323227996</v>
       </c>
       <c r="S11">
-        <v>0.01501365634446531</v>
+        <v>0.100029564613898</v>
       </c>
       <c r="T11">
-        <v>0.02189423828756453</v>
+        <v>0.1145459157821117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H12">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I12">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J12">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>3490.752443801524</v>
+        <v>121.6747089925948</v>
       </c>
       <c r="R12">
-        <v>20944.51466280914</v>
+        <v>730.0482539555691</v>
       </c>
       <c r="S12">
-        <v>0.1872401862739297</v>
+        <v>0.06427142704405693</v>
       </c>
       <c r="T12">
-        <v>0.1820334394781693</v>
+        <v>0.04906569038064709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H13">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I13">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J13">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>5378.76783308722</v>
+        <v>215.7883250239673</v>
       </c>
       <c r="R13">
-        <v>32272.60699852332</v>
+        <v>1294.729950143804</v>
       </c>
       <c r="S13">
-        <v>0.2885112901030271</v>
+        <v>0.1139844401812478</v>
       </c>
       <c r="T13">
-        <v>0.280488411760624</v>
+        <v>0.08701728757805206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H14">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I14">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J14">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>2332.795965721047</v>
+        <v>123.9445557612835</v>
       </c>
       <c r="R14">
-        <v>13996.77579432628</v>
+        <v>743.6673345677009</v>
       </c>
       <c r="S14">
-        <v>0.1251286529746008</v>
+        <v>0.06547041319494092</v>
       </c>
       <c r="T14">
-        <v>0.1216490943077441</v>
+        <v>0.04998101288017136</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H15">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I15">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J15">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>1353.380534389833</v>
+        <v>40.05506042647725</v>
       </c>
       <c r="R15">
-        <v>5413.522137559333</v>
+        <v>160.220241705909</v>
       </c>
       <c r="S15">
-        <v>0.07259386835312089</v>
+        <v>0.02115801973360218</v>
       </c>
       <c r="T15">
-        <v>0.04705012602373503</v>
+        <v>0.01076821529215385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H16">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I16">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J16">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>3942.787815314082</v>
+        <v>107.0170180689362</v>
       </c>
       <c r="R16">
-        <v>23656.7268918845</v>
+        <v>642.1021084136169</v>
       </c>
       <c r="S16">
-        <v>0.2114868747822222</v>
+        <v>0.056528891880964</v>
       </c>
       <c r="T16">
-        <v>0.2056058797376716</v>
+        <v>0.04315493266846528</v>
       </c>
     </row>
   </sheetData>
